--- a/ig/maj/kereval/0302/StructureDefinition-ror-location.xlsx
+++ b/ig/maj/kereval/0302/StructureDefinition-ror-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30</t>
+    <t>2023-02-14T16:40:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -528,7 +528,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J224-StatutLieu-ROR/FHIR/JDV-J224-StatutLieu-ROR</t>
+    <t>Indicates whether the location is still in use.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
   </si>
   <si>
     <t>.statusCode</t>
@@ -1757,7 +1760,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.6796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.62109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -3456,9 +3459,11 @@
       <c r="X16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Y16" s="2"/>
+      <c r="Y16" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="Z16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>72</v>
@@ -3491,18 +3496,18 @@
         <v>92</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3525,13 +3530,13 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3561,10 +3566,10 @@
         <v>104</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>72</v>
@@ -3582,7 +3587,7 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>73</v>
@@ -3597,18 +3602,18 @@
         <v>92</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3631,16 +3636,16 @@
         <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3690,7 +3695,7 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
@@ -3705,7 +3710,7 @@
         <v>92</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>72</v>
@@ -3713,10 +3718,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3739,19 +3744,19 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>72</v>
@@ -3800,7 +3805,7 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
@@ -3815,7 +3820,7 @@
         <v>92</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>72</v>
@@ -3823,10 +3828,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3849,17 +3854,17 @@
         <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>72</v>
@@ -3908,7 +3913,7 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
@@ -3923,7 +3928,7 @@
         <v>92</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>72</v>
@@ -3931,10 +3936,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3960,16 +3965,16 @@
         <v>100</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>72</v>
@@ -3997,10 +4002,10 @@
         <v>163</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>72</v>
@@ -4018,7 +4023,7 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
@@ -4033,18 +4038,18 @@
         <v>92</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4067,13 +4072,13 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4100,13 +4105,13 @@
         <v>72</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="Z22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>72</v>
@@ -4124,7 +4129,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -4139,18 +4144,18 @@
         <v>92</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4173,13 +4178,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4230,7 +4235,7 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
@@ -4245,7 +4250,7 @@
         <v>92</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>72</v>
@@ -4253,10 +4258,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4279,19 +4284,19 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>72</v>
@@ -4340,7 +4345,7 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
@@ -4355,7 +4360,7 @@
         <v>92</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>72</v>
@@ -4363,10 +4368,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4389,13 +4394,13 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4446,7 +4451,7 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -4461,7 +4466,7 @@
         <v>72</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>72</v>
@@ -4469,10 +4474,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4498,10 +4503,10 @@
         <v>125</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>150</v>
@@ -4545,7 +4550,7 @@
         <v>128</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>72</v>
@@ -4554,7 +4559,7 @@
         <v>129</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -4577,13 +4582,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>147</v>
@@ -4605,13 +4610,13 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>150</v>
@@ -4664,7 +4669,7 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -4687,13 +4692,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>147</v>
@@ -4715,13 +4720,13 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>150</v>
@@ -4774,7 +4779,7 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -4797,13 +4802,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>147</v>
@@ -4825,13 +4830,13 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>150</v>
@@ -4884,7 +4889,7 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -4907,13 +4912,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>72</v>
@@ -4935,7 +4940,7 @@
         <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>126</v>
@@ -4992,7 +4997,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -5015,13 +5020,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>72</v>
@@ -5043,7 +5048,7 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>126</v>
@@ -5100,7 +5105,7 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -5123,13 +5128,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>72</v>
@@ -5151,7 +5156,7 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>126</v>
@@ -5208,7 +5213,7 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -5231,10 +5236,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5260,16 +5265,16 @@
         <v>100</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>72</v>
@@ -5282,7 +5287,7 @@
         <v>72</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>72</v>
@@ -5297,10 +5302,10 @@
         <v>163</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>72</v>
@@ -5318,7 +5323,7 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -5333,7 +5338,7 @@
         <v>92</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -5341,10 +5346,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5370,13 +5375,13 @@
         <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5390,7 +5395,7 @@
         <v>72</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>72</v>
@@ -5405,10 +5410,10 @@
         <v>163</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>72</v>
@@ -5426,7 +5431,7 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -5441,7 +5446,7 @@
         <v>92</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>72</v>
@@ -5449,10 +5454,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5475,19 +5480,19 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>72</v>
@@ -5500,7 +5505,7 @@
         <v>72</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>72</v>
@@ -5536,7 +5541,7 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
@@ -5551,7 +5556,7 @@
         <v>92</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>72</v>
@@ -5559,10 +5564,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5585,16 +5590,16 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5608,7 +5613,7 @@
         <v>72</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>72</v>
@@ -5644,7 +5649,7 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -5659,7 +5664,7 @@
         <v>92</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>72</v>
@@ -5667,10 +5672,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5693,13 +5698,13 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5750,7 +5755,7 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
@@ -5765,7 +5770,7 @@
         <v>72</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -5773,10 +5778,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5802,10 +5807,10 @@
         <v>125</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>150</v>
@@ -5849,7 +5854,7 @@
         <v>128</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>72</v>
@@ -5858,7 +5863,7 @@
         <v>129</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
@@ -5881,13 +5886,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="B39" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="C39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>147</v>
@@ -5909,13 +5914,13 @@
         <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>150</v>
@@ -5968,7 +5973,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -5983,7 +5988,7 @@
         <v>131</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -5991,13 +5996,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>147</v>
@@ -6019,13 +6024,13 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="M40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>150</v>
@@ -6078,7 +6083,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -6093,7 +6098,7 @@
         <v>131</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
@@ -6101,13 +6106,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>147</v>
@@ -6129,13 +6134,13 @@
         <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="M41" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>150</v>
@@ -6188,7 +6193,7 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
@@ -6203,7 +6208,7 @@
         <v>131</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6211,13 +6216,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>147</v>
@@ -6239,13 +6244,13 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>150</v>
@@ -6298,7 +6303,7 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
@@ -6313,7 +6318,7 @@
         <v>131</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
@@ -6321,13 +6326,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>147</v>
@@ -6349,13 +6354,13 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>150</v>
@@ -6408,7 +6413,7 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
@@ -6423,7 +6428,7 @@
         <v>131</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>72</v>
@@ -6431,13 +6436,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>147</v>
@@ -6459,13 +6464,13 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>150</v>
@@ -6518,7 +6523,7 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
@@ -6533,7 +6538,7 @@
         <v>131</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>72</v>
@@ -6541,13 +6546,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>147</v>
@@ -6569,13 +6574,13 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="M45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>150</v>
@@ -6628,7 +6633,7 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
@@ -6643,7 +6648,7 @@
         <v>131</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>72</v>
@@ -6651,13 +6656,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>72</v>
@@ -6679,7 +6684,7 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>126</v>
@@ -6736,7 +6741,7 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
@@ -6759,10 +6764,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6785,13 +6790,13 @@
         <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6815,7 +6820,7 @@
         <v>72</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>72</v>
@@ -6842,7 +6847,7 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -6865,14 +6870,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6891,16 +6896,16 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6914,7 +6919,7 @@
         <v>72</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>72</v>
@@ -6950,7 +6955,7 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
@@ -6965,7 +6970,7 @@
         <v>92</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -6973,14 +6978,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6999,16 +7004,16 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7022,7 +7027,7 @@
         <v>72</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>72</v>
@@ -7058,7 +7063,7 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
@@ -7073,7 +7078,7 @@
         <v>92</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7081,14 +7086,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7107,16 +7112,16 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7166,7 +7171,7 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
@@ -7181,7 +7186,7 @@
         <v>92</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>72</v>
@@ -7189,14 +7194,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7215,16 +7220,16 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7238,7 +7243,7 @@
         <v>72</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>72</v>
@@ -7274,7 +7279,7 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
@@ -7289,7 +7294,7 @@
         <v>92</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>72</v>
@@ -7297,10 +7302,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7323,16 +7328,16 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7382,7 +7387,7 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
@@ -7397,7 +7402,7 @@
         <v>92</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -7405,10 +7410,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7431,19 +7436,19 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>72</v>
@@ -7456,7 +7461,7 @@
         <v>72</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>72</v>
@@ -7492,7 +7497,7 @@
         <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
@@ -7504,10 +7509,10 @@
         <v>136</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>72</v>
@@ -7515,10 +7520,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7541,17 +7546,17 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>72</v>
@@ -7576,13 +7581,13 @@
         <v>72</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>72</v>
@@ -7600,7 +7605,7 @@
         <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>73</v>
@@ -7615,18 +7620,18 @@
         <v>92</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7649,17 +7654,17 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>72</v>
@@ -7708,7 +7713,7 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
@@ -7723,7 +7728,7 @@
         <v>92</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>72</v>
@@ -7731,10 +7736,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7757,13 +7762,13 @@
         <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7814,7 +7819,7 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
@@ -7829,7 +7834,7 @@
         <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>72</v>
@@ -7837,10 +7842,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7918,7 +7923,7 @@
         <v>129</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
@@ -7941,13 +7946,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="B58" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="C58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>72</v>
@@ -7969,7 +7974,7 @@
         <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>126</v>
@@ -8026,7 +8031,7 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
@@ -8049,13 +8054,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>72</v>
@@ -8077,7 +8082,7 @@
         <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>126</v>
@@ -8134,7 +8139,7 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>73</v>
@@ -8157,14 +8162,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8186,10 +8191,10 @@
         <v>125</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>150</v>
@@ -8244,7 +8249,7 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
@@ -8267,10 +8272,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8293,13 +8298,13 @@
         <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8350,7 +8355,7 @@
         <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8365,7 +8370,7 @@
         <v>92</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>72</v>
@@ -8373,10 +8378,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8399,13 +8404,13 @@
         <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8456,7 +8461,7 @@
         <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -8471,7 +8476,7 @@
         <v>92</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -8479,10 +8484,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8505,13 +8510,13 @@
         <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8562,7 +8567,7 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
@@ -8577,7 +8582,7 @@
         <v>92</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -8585,10 +8590,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8611,19 +8616,19 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>72</v>
@@ -8672,7 +8677,7 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>73</v>
@@ -8687,7 +8692,7 @@
         <v>92</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>72</v>
@@ -8695,10 +8700,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8721,17 +8726,17 @@
         <v>72</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>72</v>
@@ -8780,7 +8785,7 @@
         <v>72</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>73</v>
@@ -8795,7 +8800,7 @@
         <v>92</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>72</v>
@@ -8803,10 +8808,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8829,16 +8834,16 @@
         <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8888,7 +8893,7 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>73</v>
@@ -8903,7 +8908,7 @@
         <v>92</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>72</v>
@@ -8911,10 +8916,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8937,13 +8942,13 @@
         <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8994,7 +8999,7 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>73</v>
@@ -9009,7 +9014,7 @@
         <v>72</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>72</v>
@@ -9017,10 +9022,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9046,10 +9051,10 @@
         <v>125</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>150</v>
@@ -9102,7 +9107,7 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>73</v>
@@ -9117,7 +9122,7 @@
         <v>131</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>72</v>
@@ -9125,14 +9130,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9154,10 +9159,10 @@
         <v>125</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>150</v>
@@ -9212,7 +9217,7 @@
         <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>73</v>
@@ -9235,10 +9240,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9264,10 +9269,10 @@
         <v>100</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9297,10 +9302,10 @@
         <v>163</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>72</v>
@@ -9318,7 +9323,7 @@
         <v>72</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>73</v>
@@ -9333,7 +9338,7 @@
         <v>92</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>72</v>
@@ -9341,10 +9346,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9367,13 +9372,13 @@
         <v>72</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9424,7 +9429,7 @@
         <v>72</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>73</v>
@@ -9439,7 +9444,7 @@
         <v>92</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>72</v>
@@ -9447,10 +9452,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9473,13 +9478,13 @@
         <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9530,7 +9535,7 @@
         <v>72</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>73</v>
@@ -9545,7 +9550,7 @@
         <v>92</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>72</v>
@@ -9553,10 +9558,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9579,13 +9584,13 @@
         <v>72</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9636,7 +9641,7 @@
         <v>72</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>73</v>
@@ -9651,7 +9656,7 @@
         <v>92</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>72</v>
@@ -9659,10 +9664,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9685,13 +9690,13 @@
         <v>72</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9742,7 +9747,7 @@
         <v>72</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>73</v>
@@ -9757,7 +9762,7 @@
         <v>92</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>72</v>
@@ -9765,10 +9770,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9791,17 +9796,17 @@
         <v>72</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>72</v>
@@ -9850,7 +9855,7 @@
         <v>72</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>73</v>
@@ -9865,7 +9870,7 @@
         <v>92</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>72</v>

--- a/ig/maj/kereval/0302/StructureDefinition-ror-location.xlsx
+++ b/ig/maj/kereval/0302/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T16:40:13+00:00</t>
+    <t>2023-02-15T16:52:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/maj/kereval/0302/StructureDefinition-ror-location.xlsx
+++ b/ig/maj/kereval/0302/StructureDefinition-ror-location.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T16:52:51+00:00</t>
+    <t>2023-02-16T17:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/maj/kereval/0302/StructureDefinition-ror-location.xlsx
+++ b/ig/maj/kereval/0302/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T17:40:35+00:00</t>
+    <t>2023-02-17T08:35:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
